--- a/data/raw_data/Surveyor_Assistant_1_Table.xlsx
+++ b/data/raw_data/Surveyor_Assistant_1_Table.xlsx
@@ -621,7 +621,7 @@
     <row outlineLevel="0" r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Vcanp</t>
+          <t>Vcamp</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>Canpos</t>
+          <t>Campos</t>
         </is>
       </c>
     </row>
